--- a/1_政策宣傳執情形/parsed/農委會/農委會主管102Q1廣宣彙整表.xlsx
+++ b/1_政策宣傳執情形/parsed/農委會/農委會主管102Q1廣宣彙整表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
   <si>
     <t>1.漁會選舉宣導 2.102年度1-3月漁船船員訓練課程 3.黑鮪要通報 4.汽油補貼 5.非法販運是不歸路 6.中西太平洋作業規定 7.捕獲大白鯊象鮫及巨口鯊請通報 8.正確使用水產動物用藥品 9.漁港區環境維護 10.鯖鰺漁業管理規範 11.節能養殖宣導 12.廢棄物再利用宣導 13.呼籲養殖業者做好低溫防寒措施 14.海洋保護區保護等級分類標誌 15.漁船捕獲鯊魚魚鰭處理應行遵守及注意事項</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>植樹造林綠美化宣導</t>
+  </si>
+  <si>
+    <t>民國年</t>
   </si>
   <si>
     <t>水保局</t>
@@ -660,1064 +663,1203 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1" activeCell="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.10"/>
-    <col min="2" max="2" width="9.10"/>
-    <col min="3" max="3" width="9.10"/>
-    <col min="4" max="4" width="9.10"/>
-    <col min="5" max="5" width="9.10"/>
-    <col min="6" max="6" width="9.10"/>
-    <col min="7" max="7" width="9.10"/>
+    <col max="1" min="1" width="9.10"/>
+    <col max="2" min="2" width="9.10"/>
+    <col max="3" min="3" width="9.10"/>
+    <col max="4" min="4" width="9.10"/>
+    <col max="5" min="5" width="9.10"/>
+    <col max="6" min="6" width="9.10"/>
+    <col max="7" min="7" width="9.10"/>
+    <col max="8" min="8" width="9.10"/>
   </cols>
   <sheetData>
-    <row spans="1:7" r="1">
-      <c s="2" t="s" r="A1">
+    <row spans="1:8" r="1">
+      <c t="s" r="A1" s="2">
         <v>21</v>
       </c>
-      <c s="2" t="s" r="B1">
+      <c t="s" r="B1" s="2">
         <v>42</v>
       </c>
-      <c s="2" t="s" r="C1">
+      <c t="s" r="C1" s="2">
+        <v>57</v>
+      </c>
+      <c t="s" r="D1" s="2">
         <v>52</v>
       </c>
-      <c s="2" t="s" r="D1">
-        <v>78</v>
-      </c>
-      <c s="2" t="s" r="E1">
+      <c t="s" r="E1" s="2">
+        <v>79</v>
+      </c>
+      <c t="s" r="F1" s="2">
         <v>28</v>
       </c>
-      <c s="2" t="s" r="F1">
-        <v>69</v>
-      </c>
-      <c s="2" t="s" r="G1">
+      <c t="s" r="G1" s="2">
+        <v>70</v>
+      </c>
+      <c t="s" r="H1" s="2">
         <v>23</v>
       </c>
     </row>
-    <row spans="1:7" r="2">
+    <row spans="1:8" r="2">
       <c t="s" r="A2">
         <v>44</v>
       </c>
       <c t="s" r="B2">
         <v>33</v>
       </c>
-      <c t="s" r="C2">
+      <c t="n" r="C2">
+        <v>102</v>
+      </c>
+      <c t="s" r="D2">
         <v>7</v>
       </c>
-      <c t="n" r="D2">
+      <c t="n" r="E2">
         <v>317000.0</v>
       </c>
-      <c t="s" r="E2">
-        <v>75</v>
-      </c>
       <c t="s" r="F2">
-        <v>75</v>
-      </c>
-    </row>
-    <row spans="1:7" r="3">
+        <v>76</v>
+      </c>
+      <c t="s" r="G2">
+        <v>76</v>
+      </c>
+    </row>
+    <row spans="1:8" r="3">
       <c t="s" r="A3">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="B3">
-        <v>89</v>
-      </c>
-      <c t="s" r="C3">
+        <v>90</v>
+      </c>
+      <c t="n" r="C3">
+        <v>102</v>
+      </c>
+      <c t="s" r="D3">
         <v>2</v>
       </c>
-      <c t="n" r="D3">
+      <c t="n" r="E3">
         <v>300000.0</v>
       </c>
-      <c t="s" r="E3">
-        <v>75</v>
-      </c>
       <c t="s" r="F3">
-        <v>75</v>
-      </c>
-    </row>
-    <row spans="1:7" r="4">
+        <v>76</v>
+      </c>
+      <c t="s" r="G3">
+        <v>76</v>
+      </c>
+    </row>
+    <row spans="1:8" r="4">
       <c t="s" r="A4">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="B4">
-        <v>91</v>
-      </c>
-      <c t="s" r="C4">
+        <v>92</v>
+      </c>
+      <c t="n" r="C4">
+        <v>102</v>
+      </c>
+      <c t="s" r="D4">
         <v>2</v>
       </c>
-      <c t="n" r="D4">
+      <c t="n" r="E4">
         <v>6129520.0</v>
       </c>
-      <c t="s" r="E4">
-        <v>75</v>
-      </c>
       <c t="s" r="F4">
-        <v>75</v>
-      </c>
-    </row>
-    <row spans="1:7" r="5">
+        <v>76</v>
+      </c>
+      <c t="s" r="G4">
+        <v>76</v>
+      </c>
+    </row>
+    <row spans="1:8" r="5">
       <c t="s" r="A5">
         <v>9</v>
       </c>
       <c t="s" r="B5">
         <v>39</v>
       </c>
-      <c t="s" r="C5">
+      <c t="n" r="C5">
+        <v>102</v>
+      </c>
+      <c t="s" r="D5">
         <v>5</v>
       </c>
-      <c t="n" r="D5">
+      <c t="n" r="E5">
         <v>794300.0</v>
       </c>
-      <c t="s" r="E5">
-        <v>75</v>
-      </c>
       <c t="s" r="F5">
-        <v>75</v>
-      </c>
-    </row>
-    <row spans="1:7" r="6">
+        <v>76</v>
+      </c>
+      <c t="s" r="G5">
+        <v>76</v>
+      </c>
+    </row>
+    <row spans="1:8" r="6">
       <c t="s" r="A6">
         <v>9</v>
       </c>
       <c t="s" r="B6">
-        <v>80</v>
-      </c>
-      <c t="s" r="C6">
+        <v>81</v>
+      </c>
+      <c t="n" r="C6">
+        <v>102</v>
+      </c>
+      <c t="s" r="D6">
         <v>11</v>
       </c>
-      <c t="n" r="D6">
+      <c t="n" r="E6">
         <v>359863.0</v>
       </c>
-      <c t="s" r="E6">
-        <v>75</v>
-      </c>
       <c t="s" r="F6">
-        <v>75</v>
-      </c>
-    </row>
-    <row spans="1:7" r="7">
+        <v>76</v>
+      </c>
+      <c t="s" r="G6">
+        <v>76</v>
+      </c>
+    </row>
+    <row spans="1:8" r="7">
       <c t="s" r="A7">
         <v>9</v>
       </c>
       <c t="s" r="B7">
         <v>47</v>
       </c>
-      <c t="s" r="C7">
+      <c t="n" r="C7">
+        <v>102</v>
+      </c>
+      <c t="s" r="D7">
         <v>11</v>
       </c>
-      <c t="n" r="D7">
+      <c t="n" r="E7">
         <v>24118.0</v>
       </c>
-      <c t="s" r="E7">
-        <v>75</v>
-      </c>
       <c t="s" r="F7">
-        <v>75</v>
-      </c>
-    </row>
-    <row spans="1:7" r="8">
+        <v>76</v>
+      </c>
+      <c t="s" r="G7">
+        <v>76</v>
+      </c>
+    </row>
+    <row spans="1:8" r="8">
       <c t="s" r="A8">
         <v>9</v>
       </c>
       <c t="s" r="B8">
-        <v>90</v>
-      </c>
-      <c t="s" r="C8">
+        <v>91</v>
+      </c>
+      <c t="n" r="C8">
+        <v>102</v>
+      </c>
+      <c t="s" r="D8">
         <v>11</v>
       </c>
-      <c t="n" r="D8">
+      <c t="n" r="E8">
         <v>0.0</v>
       </c>
-      <c t="s" r="E8">
-        <v>75</v>
-      </c>
       <c t="s" r="F8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="G8">
-        <v>26</v>
-      </c>
-    </row>
-    <row spans="1:7" r="9">
+        <v>76</v>
+      </c>
+      <c t="s" r="H8">
+        <v>26</v>
+      </c>
+    </row>
+    <row spans="1:8" r="9">
       <c t="s" r="A9">
         <v>9</v>
       </c>
       <c t="s" r="B9">
-        <v>64</v>
-      </c>
-      <c t="s" r="C9">
+        <v>65</v>
+      </c>
+      <c t="n" r="C9">
+        <v>102</v>
+      </c>
+      <c t="s" r="D9">
         <v>4</v>
       </c>
-      <c t="n" r="D9">
+      <c t="n" r="E9">
         <v>244964.0</v>
       </c>
-      <c t="s" r="E9">
-        <v>75</v>
-      </c>
       <c t="s" r="F9">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="G9">
-        <v>26</v>
-      </c>
-    </row>
-    <row spans="1:7" r="10">
+        <v>76</v>
+      </c>
+      <c t="s" r="H9">
+        <v>26</v>
+      </c>
+    </row>
+    <row spans="1:8" r="10">
       <c t="s" r="A10">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="B10">
         <v>35</v>
       </c>
-      <c t="s" r="C10">
+      <c t="n" r="C10">
+        <v>102</v>
+      </c>
+      <c t="s" r="D10">
         <v>11</v>
       </c>
-      <c t="n" r="D10">
+      <c t="n" r="E10">
         <v>117253.0</v>
       </c>
-      <c t="s" r="E10">
-        <v>75</v>
-      </c>
       <c t="s" r="F10">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="G10">
-        <v>26</v>
-      </c>
-    </row>
-    <row spans="1:7" r="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="H10">
+        <v>26</v>
+      </c>
+    </row>
+    <row spans="1:8" r="11">
       <c t="s" r="A11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="B11">
-        <v>81</v>
-      </c>
-      <c t="s" r="C11">
+        <v>82</v>
+      </c>
+      <c t="n" r="C11">
+        <v>102</v>
+      </c>
+      <c t="s" r="D11">
         <v>10</v>
       </c>
-      <c t="n" r="D11">
+      <c t="n" r="E11">
         <v>117600.0</v>
       </c>
-      <c t="s" r="E11">
-        <v>75</v>
-      </c>
       <c t="s" r="F11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="G11">
-        <v>26</v>
-      </c>
-    </row>
-    <row spans="1:7" r="12">
+        <v>76</v>
+      </c>
+      <c t="s" r="H11">
+        <v>26</v>
+      </c>
+    </row>
+    <row spans="1:8" r="12">
       <c t="s" r="A12">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="B12">
-        <v>66</v>
-      </c>
-      <c t="s" r="C12">
+        <v>67</v>
+      </c>
+      <c t="n" r="C12">
+        <v>102</v>
+      </c>
+      <c t="s" r="D12">
         <v>11</v>
       </c>
-      <c t="n" r="D12">
+      <c t="n" r="E12">
         <v>0.0</v>
       </c>
-      <c t="s" r="E12">
-        <v>75</v>
-      </c>
       <c t="s" r="F12">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="G12">
-        <v>26</v>
-      </c>
-    </row>
-    <row spans="1:7" r="13">
+        <v>76</v>
+      </c>
+      <c t="s" r="H12">
+        <v>26</v>
+      </c>
+    </row>
+    <row spans="1:8" r="13">
       <c t="s" r="A13">
         <v>22</v>
       </c>
       <c t="s" r="B13">
-        <v>88</v>
-      </c>
-      <c t="s" r="C13">
+        <v>89</v>
+      </c>
+      <c t="n" r="C13">
+        <v>102</v>
+      </c>
+      <c t="s" r="D13">
         <v>15</v>
       </c>
-      <c t="n" r="D13">
+      <c t="n" r="E13">
         <v>176150.0</v>
       </c>
-      <c t="s" r="E13">
-        <v>75</v>
-      </c>
       <c t="s" r="F13">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="G13">
-        <v>26</v>
-      </c>
-    </row>
-    <row spans="1:7" r="14">
+        <v>76</v>
+      </c>
+      <c t="s" r="H13">
+        <v>26</v>
+      </c>
+    </row>
+    <row spans="1:8" r="14">
       <c t="s" r="A14">
         <v>55</v>
       </c>
       <c t="s" r="B14">
         <v>38</v>
       </c>
-      <c t="s" r="C14">
+      <c t="n" r="C14">
+        <v>102</v>
+      </c>
+      <c t="s" r="D14">
         <v>13</v>
       </c>
-      <c t="n" r="D14">
+      <c t="n" r="E14">
         <v>118930.0</v>
       </c>
-      <c t="s" r="E14">
-        <v>75</v>
-      </c>
       <c t="s" r="F14">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="G14">
-        <v>26</v>
-      </c>
-    </row>
-    <row spans="1:7" r="15">
+        <v>76</v>
+      </c>
+      <c t="s" r="H14">
+        <v>26</v>
+      </c>
+    </row>
+    <row spans="1:8" r="15">
       <c t="s" r="A15">
         <v>55</v>
       </c>
       <c t="s" r="B15">
-        <v>66</v>
-      </c>
-      <c t="s" r="C15">
+        <v>67</v>
+      </c>
+      <c t="n" r="C15">
+        <v>102</v>
+      </c>
+      <c t="s" r="D15">
         <v>15</v>
       </c>
-      <c t="n" r="D15">
+      <c t="n" r="E15">
         <v>0.0</v>
       </c>
-      <c t="s" r="E15">
-        <v>75</v>
-      </c>
       <c t="s" r="F15">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="G15">
-        <v>26</v>
-      </c>
-    </row>
-    <row spans="1:7" r="16">
+        <v>76</v>
+      </c>
+      <c t="s" r="H15">
+        <v>26</v>
+      </c>
+    </row>
+    <row spans="1:8" r="16">
       <c t="s" r="A16">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="B16">
         <v>32</v>
       </c>
-      <c t="s" r="C16">
+      <c t="n" r="C16">
+        <v>102</v>
+      </c>
+      <c t="s" r="D16">
         <v>16</v>
       </c>
-      <c t="n" r="D16">
+      <c t="n" r="E16">
         <v>294000.0</v>
       </c>
-      <c t="s" r="E16">
-        <v>75</v>
-      </c>
       <c t="s" r="F16">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="G16">
-        <v>26</v>
-      </c>
-    </row>
-    <row spans="1:7" r="17">
+        <v>76</v>
+      </c>
+      <c t="s" r="H16">
+        <v>26</v>
+      </c>
+    </row>
+    <row spans="1:8" r="17">
       <c t="s" r="A17">
         <v>17</v>
       </c>
       <c t="s" r="B17">
         <v>49</v>
       </c>
-      <c t="s" r="C17">
+      <c t="n" r="C17">
+        <v>102</v>
+      </c>
+      <c t="s" r="D17">
         <v>15</v>
       </c>
-      <c t="n" r="D17">
+      <c t="n" r="E17">
         <v>128000.0</v>
       </c>
-      <c t="s" r="E17">
-        <v>75</v>
-      </c>
       <c t="s" r="F17">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="G17">
-        <v>26</v>
-      </c>
-    </row>
-    <row spans="1:7" r="18">
+        <v>76</v>
+      </c>
+      <c t="s" r="H17">
+        <v>26</v>
+      </c>
+    </row>
+    <row spans="1:8" r="18">
       <c t="s" r="A18">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="B18">
         <v>34</v>
       </c>
-      <c t="s" r="C18">
+      <c t="n" r="C18">
+        <v>102</v>
+      </c>
+      <c t="s" r="D18">
         <v>3</v>
       </c>
-      <c t="n" r="D18">
+      <c t="n" r="E18">
         <v>140330.0</v>
       </c>
-      <c t="s" r="E18">
+      <c t="s" r="F18">
         <v>53</v>
       </c>
-      <c t="s" r="F18">
-        <v>75</v>
-      </c>
       <c t="s" r="G18">
-        <v>26</v>
-      </c>
-    </row>
-    <row spans="1:7" r="19">
+        <v>76</v>
+      </c>
+      <c t="s" r="H18">
+        <v>26</v>
+      </c>
+    </row>
+    <row spans="1:8" r="19">
       <c t="s" r="A19">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="B19">
         <v>51</v>
       </c>
-      <c t="s" r="C19">
+      <c t="n" r="C19">
+        <v>102</v>
+      </c>
+      <c t="s" r="D19">
         <v>3</v>
       </c>
-      <c t="n" r="D19">
+      <c t="n" r="E19">
         <v>335000.0</v>
       </c>
-      <c t="s" r="E19">
+      <c t="s" r="F19">
         <v>53</v>
       </c>
-      <c t="s" r="F19">
-        <v>75</v>
-      </c>
       <c t="s" r="G19">
-        <v>26</v>
-      </c>
-    </row>
-    <row spans="1:7" r="20">
+        <v>76</v>
+      </c>
+      <c t="s" r="H19">
+        <v>26</v>
+      </c>
+    </row>
+    <row spans="1:8" r="20">
       <c t="s" r="A20">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="B20">
-        <v>94</v>
-      </c>
-      <c t="s" r="C20">
+        <v>95</v>
+      </c>
+      <c t="n" r="C20">
+        <v>102</v>
+      </c>
+      <c t="s" r="D20">
         <v>3</v>
       </c>
-      <c t="n" r="D20">
+      <c t="n" r="E20">
         <v>174000.0</v>
       </c>
-      <c t="s" r="E20">
+      <c t="s" r="F20">
         <v>53</v>
       </c>
-      <c t="s" r="F20">
-        <v>75</v>
-      </c>
       <c t="s" r="G20">
-        <v>26</v>
-      </c>
-    </row>
-    <row spans="1:7" r="21">
+        <v>76</v>
+      </c>
+      <c t="s" r="H20">
+        <v>26</v>
+      </c>
+    </row>
+    <row spans="1:8" r="21">
       <c t="s" r="A21">
         <v>56</v>
       </c>
       <c t="s" r="B21">
         <v>37</v>
       </c>
-      <c t="s" r="C21">
+      <c t="n" r="C21">
+        <v>102</v>
+      </c>
+      <c t="s" r="D21">
         <v>3</v>
       </c>
-      <c t="n" r="D21">
+      <c t="n" r="E21">
         <v>194500.0</v>
       </c>
-      <c t="s" r="E21">
+      <c t="s" r="F21">
         <v>53</v>
       </c>
-      <c t="s" r="F21">
-        <v>75</v>
-      </c>
       <c t="s" r="G21">
-        <v>26</v>
-      </c>
-    </row>
-    <row spans="1:7" r="22">
+        <v>76</v>
+      </c>
+      <c t="s" r="H21">
+        <v>26</v>
+      </c>
+    </row>
+    <row spans="1:8" r="22">
       <c t="s" r="A22">
         <v>56</v>
       </c>
       <c t="s" r="B22">
-        <v>83</v>
-      </c>
-      <c t="s" r="C22">
+        <v>84</v>
+      </c>
+      <c t="n" r="C22">
+        <v>102</v>
+      </c>
+      <c t="s" r="D22">
         <v>3</v>
       </c>
-      <c t="n" r="D22">
+      <c t="n" r="E22">
         <v>163400.0</v>
       </c>
-      <c t="s" r="E22">
+      <c t="s" r="F22">
         <v>53</v>
       </c>
-      <c t="s" r="F22">
-        <v>75</v>
-      </c>
       <c t="s" r="G22">
-        <v>26</v>
-      </c>
-    </row>
-    <row spans="1:7" r="23">
+        <v>76</v>
+      </c>
+      <c t="s" r="H22">
+        <v>26</v>
+      </c>
+    </row>
+    <row spans="1:8" r="23">
       <c t="s" r="A23">
         <v>56</v>
       </c>
       <c t="s" r="B23">
-        <v>62</v>
-      </c>
-      <c t="s" r="C23">
+        <v>63</v>
+      </c>
+      <c t="n" r="C23">
+        <v>102</v>
+      </c>
+      <c t="s" r="D23">
         <v>3</v>
       </c>
-      <c t="n" r="D23">
+      <c t="n" r="E23">
         <v>206000.0</v>
       </c>
-      <c t="s" r="E23">
+      <c t="s" r="F23">
         <v>53</v>
       </c>
-      <c t="s" r="F23">
-        <v>75</v>
-      </c>
       <c t="s" r="G23">
-        <v>26</v>
-      </c>
-    </row>
-    <row spans="1:7" r="24">
+        <v>76</v>
+      </c>
+      <c t="s" r="H23">
+        <v>26</v>
+      </c>
+    </row>
+    <row spans="1:8" r="24">
       <c t="s" r="A24">
         <v>56</v>
       </c>
       <c t="s" r="B24">
         <v>45</v>
       </c>
-      <c t="s" r="C24">
+      <c t="n" r="C24">
+        <v>102</v>
+      </c>
+      <c t="s" r="D24">
         <v>3</v>
       </c>
-      <c t="n" r="D24">
+      <c t="n" r="E24">
         <v>200000.0</v>
       </c>
-      <c t="s" r="E24">
+      <c t="s" r="F24">
         <v>53</v>
       </c>
-      <c t="s" r="F24">
-        <v>75</v>
-      </c>
       <c t="s" r="G24">
-        <v>26</v>
-      </c>
-    </row>
-    <row spans="1:7" r="25">
+        <v>76</v>
+      </c>
+      <c t="s" r="H24">
+        <v>26</v>
+      </c>
+    </row>
+    <row spans="1:8" r="25">
       <c t="s" r="A25">
         <v>56</v>
       </c>
       <c t="s" r="B25">
-        <v>92</v>
-      </c>
-      <c t="s" r="C25">
+        <v>93</v>
+      </c>
+      <c t="n" r="C25">
+        <v>102</v>
+      </c>
+      <c t="s" r="D25">
         <v>3</v>
       </c>
-      <c t="n" r="D25">
+      <c t="n" r="E25">
         <v>500000.0</v>
       </c>
-      <c t="s" r="E25">
+      <c t="s" r="F25">
         <v>53</v>
       </c>
-      <c t="s" r="F25">
-        <v>75</v>
-      </c>
       <c t="s" r="G25">
-        <v>26</v>
-      </c>
-    </row>
-    <row spans="1:7" r="26">
+        <v>76</v>
+      </c>
+      <c t="s" r="H25">
+        <v>26</v>
+      </c>
+    </row>
+    <row spans="1:8" r="26">
       <c t="s" r="A26">
         <v>27</v>
       </c>
       <c t="s" r="B26">
         <v>36</v>
       </c>
-      <c t="s" r="C26">
+      <c t="n" r="C26">
+        <v>102</v>
+      </c>
+      <c t="s" r="D26">
         <v>6</v>
       </c>
-      <c t="n" r="D26">
+      <c t="n" r="E26">
         <v>486000.0</v>
       </c>
-      <c t="s" r="E26">
+      <c t="s" r="F26">
         <v>53</v>
       </c>
-      <c t="s" r="F26">
-        <v>75</v>
-      </c>
       <c t="s" r="G26">
-        <v>26</v>
-      </c>
-    </row>
-    <row spans="1:7" r="27">
+        <v>76</v>
+      </c>
+      <c t="s" r="H26">
+        <v>26</v>
+      </c>
+    </row>
+    <row spans="1:8" r="27">
       <c t="s" r="A27">
         <v>27</v>
       </c>
       <c t="s" r="B27">
         <v>46</v>
       </c>
-      <c t="s" r="C27">
+      <c t="n" r="C27">
+        <v>102</v>
+      </c>
+      <c t="s" r="D27">
         <v>12</v>
       </c>
-      <c t="n" r="D27">
+      <c t="n" r="E27">
         <v>12500.0</v>
       </c>
-      <c t="s" r="E27">
+      <c t="s" r="F27">
         <v>53</v>
       </c>
-      <c t="s" r="F27">
-        <v>75</v>
-      </c>
       <c t="s" r="G27">
-        <v>26</v>
-      </c>
-    </row>
-    <row spans="1:7" r="28">
+        <v>76</v>
+      </c>
+      <c t="s" r="H27">
+        <v>26</v>
+      </c>
+    </row>
+    <row spans="1:8" r="28">
       <c t="s" r="A28">
         <v>54</v>
       </c>
       <c t="s" r="B28">
-        <v>65</v>
-      </c>
-      <c t="s" r="C28">
+        <v>66</v>
+      </c>
+      <c t="n" r="C28">
+        <v>102</v>
+      </c>
+      <c t="s" r="D28">
         <v>3</v>
       </c>
-      <c t="n" r="D28">
+      <c t="n" r="E28">
         <v>10374.0</v>
       </c>
-      <c t="s" r="E28">
+      <c t="s" r="F28">
         <v>53</v>
       </c>
-      <c t="s" r="F28">
-        <v>75</v>
-      </c>
       <c t="s" r="G28">
-        <v>26</v>
-      </c>
-    </row>
-    <row spans="1:7" r="29">
+        <v>76</v>
+      </c>
+      <c t="s" r="H28">
+        <v>26</v>
+      </c>
+    </row>
+    <row spans="1:8" r="29">
       <c t="s" r="A29">
         <v>0</v>
       </c>
       <c t="s" r="B29">
-        <v>87</v>
-      </c>
-      <c t="s" r="C29">
+        <v>88</v>
+      </c>
+      <c t="n" r="C29">
+        <v>102</v>
+      </c>
+      <c t="s" r="D29">
         <v>3</v>
       </c>
-      <c t="n" r="D29">
+      <c t="n" r="E29">
         <v>1100136.0</v>
       </c>
-      <c t="s" r="E29">
+      <c t="s" r="F29">
+        <v>60</v>
+      </c>
+      <c t="s" r="G29">
+        <v>76</v>
+      </c>
+      <c t="s" r="H29">
+        <v>26</v>
+      </c>
+    </row>
+    <row spans="1:8" r="30">
+      <c t="s" r="A30">
         <v>59</v>
       </c>
-      <c t="s" r="F29">
-        <v>75</v>
-      </c>
-      <c t="s" r="G29">
-        <v>26</v>
-      </c>
-    </row>
-    <row spans="1:7" r="30">
-      <c t="s" r="A30">
-        <v>58</v>
-      </c>
       <c t="s" r="B30">
-        <v>85</v>
-      </c>
-      <c t="s" r="C30">
+        <v>86</v>
+      </c>
+      <c t="n" r="C30">
+        <v>102</v>
+      </c>
+      <c t="s" r="D30">
         <v>5</v>
       </c>
-      <c t="n" r="D30">
+      <c t="n" r="E30">
         <v>750000.0</v>
-      </c>
-      <c t="s" r="E30">
-        <v>74</v>
       </c>
       <c t="s" r="F30">
         <v>75</v>
       </c>
       <c t="s" r="G30">
-        <v>26</v>
-      </c>
-    </row>
-    <row spans="1:7" r="31">
+        <v>76</v>
+      </c>
+      <c t="s" r="H30">
+        <v>26</v>
+      </c>
+    </row>
+    <row spans="1:8" r="31">
       <c t="s" r="A31">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="B31">
         <v>30</v>
       </c>
-      <c t="s" r="C31">
+      <c t="n" r="C31">
+        <v>102</v>
+      </c>
+      <c t="s" r="D31">
         <v>5</v>
       </c>
-      <c t="n" r="D31">
+      <c t="n" r="E31">
         <v>110250.0</v>
-      </c>
-      <c t="s" r="E31">
-        <v>74</v>
       </c>
       <c t="s" r="F31">
         <v>75</v>
       </c>
       <c t="s" r="G31">
-        <v>26</v>
-      </c>
-    </row>
-    <row spans="1:7" r="32">
+        <v>76</v>
+      </c>
+      <c t="s" r="H31">
+        <v>26</v>
+      </c>
+    </row>
+    <row spans="1:8" r="32">
       <c t="s" r="A32">
         <v>1</v>
       </c>
       <c t="s" r="B32">
         <v>41</v>
       </c>
-      <c t="s" r="C32">
+      <c t="n" r="C32">
+        <v>102</v>
+      </c>
+      <c t="s" r="D32">
         <v>2</v>
       </c>
-      <c t="n" r="D32">
+      <c t="n" r="E32">
         <v>157500.0</v>
-      </c>
-      <c t="s" r="E32">
-        <v>74</v>
       </c>
       <c t="s" r="F32">
         <v>75</v>
       </c>
       <c t="s" r="G32">
-        <v>26</v>
-      </c>
-    </row>
-    <row spans="1:7" r="33">
+        <v>76</v>
+      </c>
+      <c t="s" r="H32">
+        <v>26</v>
+      </c>
+    </row>
+    <row spans="1:8" r="33">
       <c t="s" r="A33">
         <v>1</v>
       </c>
       <c t="s" r="B33">
         <v>29</v>
       </c>
-      <c t="s" r="C33">
+      <c t="n" r="C33">
+        <v>102</v>
+      </c>
+      <c t="s" r="D33">
         <v>5</v>
       </c>
-      <c t="n" r="D33">
+      <c t="n" r="E33">
         <v>292982.0</v>
-      </c>
-      <c t="s" r="E33">
-        <v>74</v>
       </c>
       <c t="s" r="F33">
         <v>75</v>
       </c>
       <c t="s" r="G33">
-        <v>26</v>
-      </c>
-    </row>
-    <row spans="1:7" r="34">
+        <v>76</v>
+      </c>
+      <c t="s" r="H33">
+        <v>26</v>
+      </c>
+    </row>
+    <row spans="1:8" r="34">
       <c t="s" r="A34">
         <v>1</v>
       </c>
       <c t="s" r="B34">
-        <v>63</v>
-      </c>
-      <c t="s" r="C34">
+        <v>64</v>
+      </c>
+      <c t="n" r="C34">
+        <v>102</v>
+      </c>
+      <c t="s" r="D34">
         <v>5</v>
       </c>
-      <c t="n" r="D34">
+      <c t="n" r="E34">
         <v>26250.0</v>
-      </c>
-      <c t="s" r="E34">
-        <v>74</v>
       </c>
       <c t="s" r="F34">
         <v>75</v>
       </c>
       <c t="s" r="G34">
-        <v>26</v>
-      </c>
-    </row>
-    <row spans="1:7" r="35">
+        <v>76</v>
+      </c>
+      <c t="s" r="H34">
+        <v>26</v>
+      </c>
+    </row>
+    <row spans="1:8" r="35">
       <c t="s" r="A35">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="B35">
         <v>31</v>
       </c>
-      <c t="s" r="C35">
+      <c t="n" r="C35">
+        <v>102</v>
+      </c>
+      <c t="s" r="D35">
         <v>15</v>
       </c>
-      <c t="n" r="D35">
+      <c t="n" r="E35">
         <v>468000.0</v>
       </c>
-      <c t="s" r="E35">
-        <v>72</v>
-      </c>
       <c t="s" r="F35">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c t="s" r="G35">
-        <v>26</v>
-      </c>
-    </row>
-    <row spans="1:7" r="36">
+        <v>76</v>
+      </c>
+      <c t="s" r="H35">
+        <v>26</v>
+      </c>
+    </row>
+    <row spans="1:8" r="36">
       <c t="s" r="A36">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="B36">
         <v>40</v>
       </c>
-      <c s="1" t="n" r="C36">
+      <c t="n" r="C36">
+        <v>102</v>
+      </c>
+      <c t="n" r="D36" s="1">
         <v>102.0</v>
       </c>
-      <c t="n" r="D36">
+      <c t="n" r="E36">
         <v>117000.0</v>
       </c>
-      <c t="s" r="E36">
-        <v>72</v>
-      </c>
       <c t="s" r="F36">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c t="s" r="G36">
-        <v>26</v>
-      </c>
-    </row>
-    <row spans="1:7" r="37">
+        <v>76</v>
+      </c>
+      <c t="s" r="H36">
+        <v>26</v>
+      </c>
+    </row>
+    <row spans="1:8" r="37">
       <c t="s" r="A37">
         <v>25</v>
       </c>
       <c t="s" r="B37">
-        <v>84</v>
-      </c>
-      <c t="s" r="C37">
+        <v>85</v>
+      </c>
+      <c t="n" r="C37">
+        <v>102</v>
+      </c>
+      <c t="s" r="D37">
         <v>10</v>
       </c>
-      <c t="n" r="D37">
+      <c t="n" r="E37">
         <v>8000.0</v>
       </c>
-      <c t="s" r="E37">
-        <v>73</v>
-      </c>
       <c t="s" r="F37">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="G37">
-        <v>26</v>
-      </c>
-    </row>
-    <row spans="1:7" r="38">
+        <v>76</v>
+      </c>
+      <c t="s" r="H37">
+        <v>26</v>
+      </c>
+    </row>
+    <row spans="1:8" r="38">
       <c t="s" r="A38">
         <v>24</v>
       </c>
       <c t="s" r="B38">
-        <v>82</v>
-      </c>
-      <c t="s" r="C38">
+        <v>83</v>
+      </c>
+      <c t="n" r="C38">
+        <v>102</v>
+      </c>
+      <c t="s" r="D38">
         <v>11</v>
       </c>
-      <c t="n" r="D38">
+      <c t="n" r="E38">
         <v>16000.0</v>
       </c>
-      <c t="s" r="E38">
-        <v>77</v>
-      </c>
       <c t="s" r="F38">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c t="s" r="G38">
-        <v>26</v>
-      </c>
-    </row>
-    <row spans="1:7" r="39">
+        <v>76</v>
+      </c>
+      <c t="s" r="H38">
+        <v>26</v>
+      </c>
+    </row>
+    <row spans="1:8" r="39">
       <c t="s" r="A39">
         <v>43</v>
       </c>
       <c t="s" r="B39">
-        <v>86</v>
-      </c>
-      <c t="s" r="C39">
+        <v>87</v>
+      </c>
+      <c t="n" r="C39">
+        <v>102</v>
+      </c>
+      <c t="s" r="D39">
         <v>5</v>
       </c>
-      <c t="n" r="D39">
+      <c t="n" r="E39">
         <v>90000.0</v>
       </c>
-      <c t="s" r="E39">
+      <c t="s" r="F39">
+        <v>78</v>
+      </c>
+      <c t="s" r="G39">
+        <v>76</v>
+      </c>
+      <c t="s" r="H39">
+        <v>26</v>
+      </c>
+    </row>
+    <row spans="1:8" r="40">
+      <c t="s" r="A40">
         <v>77</v>
       </c>
-      <c t="s" r="F39">
-        <v>75</v>
-      </c>
-      <c t="s" r="G39">
-        <v>26</v>
-      </c>
-    </row>
-    <row spans="1:7" r="40">
-      <c t="s" r="A40">
-        <v>76</v>
-      </c>
       <c t="s" r="B40">
-        <v>67</v>
-      </c>
-      <c t="s" r="C40">
+        <v>68</v>
+      </c>
+      <c t="n" r="C40">
+        <v>102</v>
+      </c>
+      <c t="s" r="D40">
         <v>3</v>
       </c>
-      <c t="n" r="D40">
+      <c t="n" r="E40">
         <v>15000.0</v>
       </c>
-      <c t="s" r="E40">
+      <c t="s" r="F40">
+        <v>78</v>
+      </c>
+      <c t="s" r="G40">
+        <v>76</v>
+      </c>
+      <c t="s" r="H40">
+        <v>26</v>
+      </c>
+    </row>
+    <row spans="1:8" r="41">
+      <c t="s" r="A41">
         <v>77</v>
-      </c>
-      <c t="s" r="F40">
-        <v>75</v>
-      </c>
-      <c t="s" r="G40">
-        <v>26</v>
-      </c>
-    </row>
-    <row spans="1:7" r="41">
-      <c t="s" r="A41">
-        <v>76</v>
       </c>
       <c t="s" r="B41">
         <v>48</v>
       </c>
-      <c t="s" r="C41">
+      <c t="n" r="C41">
+        <v>102</v>
+      </c>
+      <c t="s" r="D41">
         <v>3</v>
       </c>
-      <c t="n" r="D41">
+      <c t="n" r="E41">
         <v>616250.0</v>
       </c>
-      <c t="s" r="E41">
+      <c t="s" r="F41">
+        <v>78</v>
+      </c>
+      <c t="s" r="G41">
+        <v>76</v>
+      </c>
+      <c t="s" r="H41">
+        <v>26</v>
+      </c>
+    </row>
+    <row spans="1:8" r="42">
+      <c t="s" r="A42">
         <v>77</v>
       </c>
-      <c t="s" r="F41">
-        <v>75</v>
-      </c>
-      <c t="s" r="G41">
-        <v>26</v>
-      </c>
-    </row>
-    <row spans="1:7" r="42">
-      <c t="s" r="A42">
-        <v>76</v>
-      </c>
       <c t="s" r="B42">
-        <v>93</v>
-      </c>
-      <c t="s" r="C42">
+        <v>94</v>
+      </c>
+      <c t="n" r="C42">
+        <v>102</v>
+      </c>
+      <c t="s" r="D42">
         <v>14</v>
       </c>
-      <c t="n" r="D42">
+      <c t="n" r="E42">
         <v>10000.0</v>
       </c>
-      <c t="s" r="E42">
-        <v>77</v>
-      </c>
       <c t="s" r="F42">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c t="s" r="G42">
-        <v>26</v>
-      </c>
-    </row>
-    <row spans="1:7" r="43">
+        <v>76</v>
+      </c>
+      <c t="s" r="H42">
+        <v>26</v>
+      </c>
+    </row>
+    <row spans="1:8" r="43">
       <c t="s" r="A43">
         <v>18</v>
       </c>
       <c t="s" r="B43">
-        <v>82</v>
-      </c>
-      <c t="s" r="C43">
+        <v>83</v>
+      </c>
+      <c t="n" r="C43">
+        <v>102</v>
+      </c>
+      <c t="s" r="D43">
         <v>5</v>
       </c>
-      <c t="n" r="D43">
+      <c t="n" r="E43">
         <v>8400.0</v>
       </c>
-      <c t="s" r="E43">
-        <v>57</v>
-      </c>
       <c t="s" r="F43">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c t="s" r="G43">
-        <v>26</v>
-      </c>
-    </row>
-    <row spans="1:7" r="44">
+        <v>76</v>
+      </c>
+      <c t="s" r="H43">
+        <v>26</v>
+      </c>
+    </row>
+    <row spans="1:8" r="44">
       <c t="s" r="A44">
         <v>20</v>
       </c>
       <c t="s" r="B44">
-        <v>82</v>
-      </c>
-      <c t="s" r="C44">
+        <v>83</v>
+      </c>
+      <c t="n" r="C44">
+        <v>102</v>
+      </c>
+      <c t="s" r="D44">
         <v>11</v>
       </c>
-      <c t="n" r="D44">
+      <c t="n" r="E44">
         <v>8400.0</v>
       </c>
-      <c t="s" r="E44">
-        <v>57</v>
-      </c>
       <c t="s" r="F44">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c t="s" r="G44">
-        <v>26</v>
-      </c>
-    </row>
-    <row spans="1:7" r="45">
+        <v>76</v>
+      </c>
+      <c t="s" r="H44">
+        <v>26</v>
+      </c>
+    </row>
+    <row spans="1:8" r="45">
       <c t="s" r="A45">
         <v>19</v>
       </c>
       <c t="s" r="B45">
-        <v>82</v>
-      </c>
-      <c t="s" r="C45">
+        <v>83</v>
+      </c>
+      <c t="n" r="C45">
+        <v>102</v>
+      </c>
+      <c t="s" r="D45">
         <v>15</v>
       </c>
-      <c t="n" r="D45">
+      <c t="n" r="E45">
         <v>8400.0</v>
       </c>
-      <c t="s" r="E45">
-        <v>57</v>
-      </c>
       <c t="s" r="F45">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c t="s" r="G45">
-        <v>26</v>
-      </c>
-    </row>
-    <row spans="1:7" r="46">
+        <v>76</v>
+      </c>
+      <c t="s" r="H45">
+        <v>26</v>
+      </c>
+    </row>
+    <row spans="1:8" r="46">
       <c t="s" r="A46">
         <v>19</v>
       </c>
       <c t="s" r="B46">
         <v>50</v>
       </c>
-      <c t="s" r="C46">
+      <c t="n" r="C46">
+        <v>102</v>
+      </c>
+      <c t="s" r="D46">
         <v>8</v>
       </c>
-      <c t="n" r="D46">
+      <c t="n" r="E46">
         <v>20417.0</v>
       </c>
-      <c t="s" r="E46">
-        <v>57</v>
-      </c>
       <c t="s" r="F46">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c t="s" r="G46">
+        <v>76</v>
+      </c>
+      <c t="s" r="H46">
         <v>26</v>
       </c>
     </row>

--- a/1_政策宣傳執情形/parsed/農委會/農委會主管102Q1廣宣彙整表.xlsx
+++ b/1_政策宣傳執情形/parsed/農委會/農委會主管102Q1廣宣彙整表.xlsx
@@ -665,7 +665,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
   <dimension ref="A1:H46"/>
   <sheetViews>
@@ -685,7 +685,7 @@
     <col max="8" min="8" width="9.10"/>
   </cols>
   <sheetData>
-    <row spans="1:8" r="1">
+    <row r="1" spans="1:8">
       <c t="s" r="A1" s="2">
         <v>21</v>
       </c>
@@ -711,7 +711,7 @@
         <v>23</v>
       </c>
     </row>
-    <row spans="1:8" r="2">
+    <row r="2" spans="1:8">
       <c t="s" r="A2">
         <v>44</v>
       </c>
@@ -734,7 +734,7 @@
         <v>76</v>
       </c>
     </row>
-    <row spans="1:8" r="3">
+    <row r="3" spans="1:8">
       <c t="s" r="A3">
         <v>72</v>
       </c>
@@ -757,7 +757,7 @@
         <v>76</v>
       </c>
     </row>
-    <row spans="1:8" r="4">
+    <row r="4" spans="1:8">
       <c t="s" r="A4">
         <v>72</v>
       </c>
@@ -780,7 +780,7 @@
         <v>76</v>
       </c>
     </row>
-    <row spans="1:8" r="5">
+    <row r="5" spans="1:8">
       <c t="s" r="A5">
         <v>9</v>
       </c>
@@ -803,7 +803,7 @@
         <v>76</v>
       </c>
     </row>
-    <row spans="1:8" r="6">
+    <row r="6" spans="1:8">
       <c t="s" r="A6">
         <v>9</v>
       </c>
@@ -826,7 +826,7 @@
         <v>76</v>
       </c>
     </row>
-    <row spans="1:8" r="7">
+    <row r="7" spans="1:8">
       <c t="s" r="A7">
         <v>9</v>
       </c>
@@ -849,7 +849,7 @@
         <v>76</v>
       </c>
     </row>
-    <row spans="1:8" r="8">
+    <row r="8" spans="1:8">
       <c t="s" r="A8">
         <v>9</v>
       </c>
@@ -875,7 +875,7 @@
         <v>26</v>
       </c>
     </row>
-    <row spans="1:8" r="9">
+    <row r="9" spans="1:8">
       <c t="s" r="A9">
         <v>9</v>
       </c>
@@ -901,7 +901,7 @@
         <v>26</v>
       </c>
     </row>
-    <row spans="1:8" r="10">
+    <row r="10" spans="1:8">
       <c t="s" r="A10">
         <v>71</v>
       </c>
@@ -927,7 +927,7 @@
         <v>26</v>
       </c>
     </row>
-    <row spans="1:8" r="11">
+    <row r="11" spans="1:8">
       <c t="s" r="A11">
         <v>71</v>
       </c>
@@ -953,7 +953,7 @@
         <v>26</v>
       </c>
     </row>
-    <row spans="1:8" r="12">
+    <row r="12" spans="1:8">
       <c t="s" r="A12">
         <v>71</v>
       </c>
@@ -979,7 +979,7 @@
         <v>26</v>
       </c>
     </row>
-    <row spans="1:8" r="13">
+    <row r="13" spans="1:8">
       <c t="s" r="A13">
         <v>22</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>26</v>
       </c>
     </row>
-    <row spans="1:8" r="14">
+    <row r="14" spans="1:8">
       <c t="s" r="A14">
         <v>55</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>26</v>
       </c>
     </row>
-    <row spans="1:8" r="15">
+    <row r="15" spans="1:8">
       <c t="s" r="A15">
         <v>55</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>26</v>
       </c>
     </row>
-    <row spans="1:8" r="16">
+    <row r="16" spans="1:8">
       <c t="s" r="A16">
         <v>69</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>26</v>
       </c>
     </row>
-    <row spans="1:8" r="17">
+    <row r="17" spans="1:8">
       <c t="s" r="A17">
         <v>17</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>26</v>
       </c>
     </row>
-    <row spans="1:8" r="18">
+    <row r="18" spans="1:8">
       <c t="s" r="A18">
         <v>80</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>26</v>
       </c>
     </row>
-    <row spans="1:8" r="19">
+    <row r="19" spans="1:8">
       <c t="s" r="A19">
         <v>80</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>26</v>
       </c>
     </row>
-    <row spans="1:8" r="20">
+    <row r="20" spans="1:8">
       <c t="s" r="A20">
         <v>80</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>26</v>
       </c>
     </row>
-    <row spans="1:8" r="21">
+    <row r="21" spans="1:8">
       <c t="s" r="A21">
         <v>56</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
     </row>
-    <row spans="1:8" r="22">
+    <row r="22" spans="1:8">
       <c t="s" r="A22">
         <v>56</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>26</v>
       </c>
     </row>
-    <row spans="1:8" r="23">
+    <row r="23" spans="1:8">
       <c t="s" r="A23">
         <v>56</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>26</v>
       </c>
     </row>
-    <row spans="1:8" r="24">
+    <row r="24" spans="1:8">
       <c t="s" r="A24">
         <v>56</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>26</v>
       </c>
     </row>
-    <row spans="1:8" r="25">
+    <row r="25" spans="1:8">
       <c t="s" r="A25">
         <v>56</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>26</v>
       </c>
     </row>
-    <row spans="1:8" r="26">
+    <row r="26" spans="1:8">
       <c t="s" r="A26">
         <v>27</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>26</v>
       </c>
     </row>
-    <row spans="1:8" r="27">
+    <row r="27" spans="1:8">
       <c t="s" r="A27">
         <v>27</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>26</v>
       </c>
     </row>
-    <row spans="1:8" r="28">
+    <row r="28" spans="1:8">
       <c t="s" r="A28">
         <v>54</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>26</v>
       </c>
     </row>
-    <row spans="1:8" r="29">
+    <row r="29" spans="1:8">
       <c t="s" r="A29">
         <v>0</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>26</v>
       </c>
     </row>
-    <row spans="1:8" r="30">
+    <row r="30" spans="1:8">
       <c t="s" r="A30">
         <v>59</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>26</v>
       </c>
     </row>
-    <row spans="1:8" r="31">
+    <row r="31" spans="1:8">
       <c t="s" r="A31">
         <v>59</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>26</v>
       </c>
     </row>
-    <row spans="1:8" r="32">
+    <row r="32" spans="1:8">
       <c t="s" r="A32">
         <v>1</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>26</v>
       </c>
     </row>
-    <row spans="1:8" r="33">
+    <row r="33" spans="1:8">
       <c t="s" r="A33">
         <v>1</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>26</v>
       </c>
     </row>
-    <row spans="1:8" r="34">
+    <row r="34" spans="1:8">
       <c t="s" r="A34">
         <v>1</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>26</v>
       </c>
     </row>
-    <row spans="1:8" r="35">
+    <row r="35" spans="1:8">
       <c t="s" r="A35">
         <v>61</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>26</v>
       </c>
     </row>
-    <row spans="1:8" r="36">
+    <row r="36" spans="1:8">
       <c t="s" r="A36">
         <v>62</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>26</v>
       </c>
     </row>
-    <row spans="1:8" r="37">
+    <row r="37" spans="1:8">
       <c t="s" r="A37">
         <v>25</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>26</v>
       </c>
     </row>
-    <row spans="1:8" r="38">
+    <row r="38" spans="1:8">
       <c t="s" r="A38">
         <v>24</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>26</v>
       </c>
     </row>
-    <row spans="1:8" r="39">
+    <row r="39" spans="1:8">
       <c t="s" r="A39">
         <v>43</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>26</v>
       </c>
     </row>
-    <row spans="1:8" r="40">
+    <row r="40" spans="1:8">
       <c t="s" r="A40">
         <v>77</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>26</v>
       </c>
     </row>
-    <row spans="1:8" r="41">
+    <row r="41" spans="1:8">
       <c t="s" r="A41">
         <v>77</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>26</v>
       </c>
     </row>
-    <row spans="1:8" r="42">
+    <row r="42" spans="1:8">
       <c t="s" r="A42">
         <v>77</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>26</v>
       </c>
     </row>
-    <row spans="1:8" r="43">
+    <row r="43" spans="1:8">
       <c t="s" r="A43">
         <v>18</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>26</v>
       </c>
     </row>
-    <row spans="1:8" r="44">
+    <row r="44" spans="1:8">
       <c t="s" r="A44">
         <v>20</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>26</v>
       </c>
     </row>
-    <row spans="1:8" r="45">
+    <row r="45" spans="1:8">
       <c t="s" r="A45">
         <v>19</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>26</v>
       </c>
     </row>
-    <row spans="1:8" r="46">
+    <row r="46" spans="1:8">
       <c t="s" r="A46">
         <v>19</v>
       </c>
